--- a/data/Fish_1.xlsx
+++ b/data/Fish_1.xlsx
@@ -10,9 +10,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$O$251</definedName>
-  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -409,13 +406,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -427,44 +428,23 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF292929"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O251"/>
+  <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O20" activeCellId="0" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.6"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -514,7 +494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>2021</v>
       </c>
@@ -555,7 +535,7 @@
         <v>86.2025366029601</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2021</v>
       </c>
@@ -596,7 +576,7 @@
         <v>103.276252742389</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>2021</v>
       </c>
@@ -637,7 +617,7 @@
         <v>122.383114172746</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>2021</v>
       </c>
@@ -678,7 +658,7 @@
         <v>143.624170860917</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>2021</v>
       </c>
@@ -719,7 +699,7 @@
         <v>167.099289352561</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>2021</v>
       </c>
@@ -760,7 +740,7 @@
         <v>192.907231404554</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>2021</v>
       </c>
@@ -801,7 +781,7 @@
         <v>221.145723533372</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>2021</v>
       </c>
@@ -842,7 +822,7 @@
         <v>251.911518930862</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>2021</v>
       </c>
@@ -873,17 +853,17 @@
       <c r="L10" s="0" t="n">
         <v>-64.986336</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="M10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="N10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>2021</v>
       </c>
@@ -914,17 +894,17 @@
       <c r="L11" s="0" t="n">
         <v>-64.986336</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="M11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="N11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>2021</v>
       </c>
@@ -955,17 +935,17 @@
       <c r="L12" s="0" t="n">
         <v>-64.986336</v>
       </c>
-      <c r="M12" s="0" t="s">
+      <c r="M12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="N12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>2021</v>
       </c>
@@ -996,17 +976,17 @@
       <c r="L13" s="0" t="n">
         <v>-64.986336</v>
       </c>
-      <c r="M13" s="0" t="s">
+      <c r="M13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="N13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>2021</v>
       </c>
@@ -1037,17 +1017,17 @@
       <c r="L14" s="0" t="n">
         <v>-64.986336</v>
       </c>
-      <c r="M14" s="0" t="s">
+      <c r="M14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="N14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>2021</v>
       </c>
@@ -1078,17 +1058,17 @@
       <c r="L15" s="0" t="n">
         <v>-64.986336</v>
       </c>
-      <c r="M15" s="0" t="s">
+      <c r="M15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="N15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>2021</v>
       </c>
@@ -1119,17 +1099,17 @@
       <c r="L16" s="0" t="n">
         <v>-64.986336</v>
       </c>
-      <c r="M16" s="0" t="s">
+      <c r="M16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="N16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>2021</v>
       </c>
@@ -1160,17 +1140,17 @@
       <c r="L17" s="0" t="n">
         <v>-64.986336</v>
       </c>
-      <c r="M17" s="0" t="s">
+      <c r="M17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="N17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>2021</v>
       </c>
@@ -1201,17 +1181,17 @@
       <c r="L18" s="0" t="n">
         <v>-64.986336</v>
       </c>
-      <c r="M18" s="0" t="s">
+      <c r="M18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="N18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>2021</v>
       </c>
@@ -1252,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>2021</v>
       </c>
@@ -1293,7 +1273,7 @@
         <v>108.448120762181</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>2021</v>
       </c>
@@ -1334,7 +1314,7 @@
         <v>126.478853866051</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>2021</v>
       </c>
@@ -1375,7 +1355,7 @@
         <v>146.348015904048</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>2021</v>
       </c>
@@ -1416,7 +1396,7 @@
         <v>168.137014501502</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>2021</v>
       </c>
@@ -1457,7 +1437,7 @@
         <v>191.926626881658</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>2021</v>
       </c>
@@ -1498,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>2021</v>
       </c>
@@ -1539,7 +1519,7 @@
         <v>16.5586520733282</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>2021</v>
       </c>
@@ -1580,7 +1560,7 @@
         <v>22.2410884813254</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>2021</v>
       </c>
@@ -1621,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>2021</v>
       </c>
@@ -1662,7 +1642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>2021</v>
       </c>
@@ -1703,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>2021</v>
       </c>
@@ -1744,7 +1724,7 @@
         <v>111.899817734795</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>2021</v>
       </c>
@@ -1785,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>2021</v>
       </c>
@@ -1826,7 +1806,7 @@
         <v>81.1945615166171</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>2021</v>
       </c>
@@ -1867,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>2021</v>
       </c>
@@ -1908,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>2021</v>
       </c>
@@ -1949,7 +1929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>2021</v>
       </c>
@@ -1990,7 +1970,7 @@
         <v>55.8385094594589</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>2021</v>
       </c>
@@ -2031,7 +2011,7 @@
         <v>68.9400293919205</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>2021</v>
       </c>
@@ -2072,7 +2052,7 @@
         <v>83.9651783550764</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>2021</v>
       </c>
@@ -2113,7 +2093,7 @@
         <v>86.2025366029601</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>2021</v>
       </c>
@@ -2154,7 +2134,7 @@
         <v>37.3023873926051</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>2021</v>
       </c>
@@ -2195,7 +2175,7 @@
         <v>46.9206819299964</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>2021</v>
       </c>
@@ -2236,7 +2216,7 @@
         <v>70.9379097191964</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>2021</v>
       </c>
@@ -2277,7 +2257,7 @@
         <v>141.534831602989</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>2021</v>
       </c>
@@ -2318,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>2021</v>
       </c>
@@ -2359,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>2021</v>
       </c>
@@ -2400,7 +2380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>2021</v>
       </c>
@@ -2441,7 +2421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>2021</v>
       </c>
@@ -2482,7 +2462,7 @@
         <v>348.351468311942</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <v>2021</v>
       </c>
@@ -2523,7 +2503,7 @@
         <v>392.48822459126</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <v>2021</v>
       </c>
@@ -2564,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <v>2021</v>
       </c>
@@ -2605,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
         <v>2021</v>
       </c>
@@ -2646,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <v>2021</v>
       </c>
@@ -2687,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <v>2021</v>
       </c>
@@ -2728,7 +2708,7 @@
         <v>10.1587812948415</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
         <v>2021</v>
       </c>
@@ -2769,7 +2749,7 @@
         <v>14.2445702069767</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <v>2021</v>
       </c>
@@ -2810,7 +2790,7 @@
         <v>19.2740662738239</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
         <v>2021</v>
       </c>
@@ -2851,7 +2831,7 @@
         <v>25.3378846310481</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
         <v>2021</v>
       </c>
@@ -2892,7 +2872,7 @@
         <v>32.5254657461239</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
         <v>2021</v>
       </c>
@@ -2933,7 +2913,7 @@
         <v>4.57292844009787</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <v>2021</v>
       </c>
@@ -2974,7 +2954,7 @@
         <v>7.18370515384259</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
         <v>2021</v>
       </c>
@@ -3015,7 +2995,7 @@
         <v>10.6234334983111</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
         <v>2021</v>
       </c>
@@ -3056,7 +3036,7 @@
         <v>20.427312916857</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
         <v>2021</v>
       </c>
@@ -3097,7 +3077,7 @@
         <v>20.427312916857</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
         <v>2021</v>
       </c>
@@ -3138,7 +3118,7 @@
         <v>27.0079617094753</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
         <v>2021</v>
       </c>
@@ -3179,7 +3159,7 @@
         <v>34.8507631549841</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
         <v>2021</v>
       </c>
@@ -3220,7 +3200,7 @@
         <v>44.0621073236069</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
         <v>2021</v>
       </c>
@@ -3261,7 +3241,7 @@
         <v>10.3252610397354</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
         <v>2021</v>
       </c>
@@ -3302,7 +3282,7 @@
         <v>21.0535633271687</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
         <v>2021</v>
       </c>
@@ -3343,7 +3323,7 @@
         <v>28.3823333621793</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
         <v>2021</v>
       </c>
@@ -3384,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
         <v>2021</v>
       </c>
@@ -3425,7 +3405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
         <v>2021</v>
       </c>
@@ -3466,7 +3446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
         <v>2021</v>
       </c>
@@ -3507,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
         <v>2021</v>
       </c>
@@ -3548,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
         <v>2021</v>
       </c>
@@ -3589,7 +3569,7 @@
         <v>81.1945615166171</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
         <v>2021</v>
       </c>
@@ -3630,7 +3610,7 @@
         <v>190.259171458932</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
         <v>2021</v>
       </c>
@@ -3671,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
         <v>2021</v>
       </c>
@@ -3712,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
         <v>2021</v>
       </c>
@@ -3753,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
         <v>2021</v>
       </c>
@@ -3794,7 +3774,7 @@
         <v>46.1500322845451</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
         <v>2021</v>
       </c>
@@ -3835,7 +3815,7 @@
         <v>57.743872622123</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
         <v>2021</v>
       </c>
@@ -3876,7 +3856,7 @@
         <v>71.0596428127505</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
         <v>2021</v>
       </c>
@@ -3917,7 +3897,7 @@
         <v>71.0596428127505</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
         <v>2021</v>
       </c>
@@ -3958,7 +3938,7 @@
         <v>86.2025366029601</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
         <v>2021</v>
       </c>
@@ -3999,7 +3979,7 @@
         <v>103.276252742389</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
         <v>2021</v>
       </c>
@@ -4040,7 +4020,7 @@
         <v>122.383114172746</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
         <v>2021</v>
       </c>
@@ -4081,7 +4061,7 @@
         <v>143.624170860917</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
         <v>2021</v>
       </c>
@@ -4122,7 +4102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
         <v>2021</v>
       </c>
@@ -4163,7 +4143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
         <v>2021</v>
       </c>
@@ -4204,7 +4184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
         <v>2021</v>
       </c>
@@ -4245,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
         <v>2021</v>
       </c>
@@ -4286,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
         <v>2021</v>
       </c>
@@ -4327,7 +4307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
         <v>2021</v>
       </c>
@@ -4368,7 +4348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
         <v>2021</v>
       </c>
@@ -4409,7 +4389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
         <v>2021</v>
       </c>
@@ -4450,7 +4430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
         <v>2021</v>
       </c>
@@ -4491,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
         <v>2021</v>
       </c>
@@ -4532,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
         <v>2021</v>
       </c>
@@ -4573,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
         <v>2021</v>
       </c>
@@ -6664,7 +6644,7 @@
         <v>392.48822459126</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="n">
         <v>2021</v>
       </c>
@@ -6705,7 +6685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="n">
         <v>2021</v>
       </c>
@@ -6746,7 +6726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="n">
         <v>2021</v>
       </c>
@@ -6787,7 +6767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="n">
         <v>2021</v>
       </c>
@@ -6828,7 +6808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="n">
         <v>2021</v>
       </c>
@@ -6869,7 +6849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="n">
         <v>2021</v>
       </c>
@@ -6910,7 +6890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="n">
         <v>2021</v>
       </c>
@@ -6951,7 +6931,7 @@
         <v>181.104465804253</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="n">
         <v>2021</v>
       </c>
@@ -6992,7 +6972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="n">
         <v>2021</v>
       </c>
@@ -7033,7 +7013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="n">
         <v>2021</v>
       </c>
@@ -7074,7 +7054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="n">
         <v>2021</v>
       </c>
@@ -7115,7 +7095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="n">
         <v>2021</v>
       </c>
@@ -7156,7 +7136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="n">
         <v>2021</v>
       </c>
@@ -7197,7 +7177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="n">
         <v>2021</v>
       </c>
@@ -7238,7 +7218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="n">
         <v>2021</v>
       </c>
@@ -7279,7 +7259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="n">
         <v>2021</v>
       </c>
@@ -7320,7 +7300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="n">
         <v>2021</v>
       </c>
@@ -7361,7 +7341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="n">
         <v>2021</v>
       </c>
@@ -7402,7 +7382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="n">
         <v>2021</v>
       </c>
@@ -7443,7 +7423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="n">
         <v>2021</v>
       </c>
@@ -7484,7 +7464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="n">
         <v>2021</v>
       </c>
@@ -7525,7 +7505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="n">
         <v>2021</v>
       </c>
@@ -7566,7 +7546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="n">
         <v>2021</v>
       </c>
@@ -7607,7 +7587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="n">
         <v>2021</v>
       </c>
@@ -7648,7 +7628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="n">
         <v>2021</v>
       </c>
@@ -7689,7 +7669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="n">
         <v>2021</v>
       </c>
@@ -7730,7 +7710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="n">
         <v>2021</v>
       </c>
@@ -7771,7 +7751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="n">
         <v>2021</v>
       </c>
@@ -7812,7 +7792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="n">
         <v>2021</v>
       </c>
@@ -7853,7 +7833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="n">
         <v>2021</v>
       </c>
@@ -7894,7 +7874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="n">
         <v>2021</v>
       </c>
@@ -7935,7 +7915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="n">
         <v>2021</v>
       </c>
@@ -7976,7 +7956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="n">
         <v>2021</v>
       </c>
@@ -8017,7 +7997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="n">
         <v>2021</v>
       </c>
@@ -8058,7 +8038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="n">
         <v>2021</v>
       </c>
@@ -8099,7 +8079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="n">
         <v>2021</v>
       </c>
@@ -8140,7 +8120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="n">
         <v>2021</v>
       </c>
@@ -8181,7 +8161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="n">
         <v>2021</v>
       </c>
@@ -8222,7 +8202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="n">
         <v>2021</v>
       </c>
@@ -8263,7 +8243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="n">
         <v>2021</v>
       </c>
@@ -8304,7 +8284,7 @@
         <v>657.605817692804</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="n">
         <v>2021</v>
       </c>
@@ -8345,7 +8325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="n">
         <v>2021</v>
       </c>
@@ -8386,7 +8366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="n">
         <v>2021</v>
       </c>
@@ -8427,7 +8407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="n">
         <v>2021</v>
       </c>
@@ -8468,7 +8448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="n">
         <v>2021</v>
       </c>
@@ -8509,7 +8489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="n">
         <v>2021</v>
       </c>
@@ -8550,7 +8530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="n">
         <v>2021</v>
       </c>
@@ -8591,7 +8571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="n">
         <v>2021</v>
       </c>
@@ -8632,7 +8612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="n">
         <v>2021</v>
       </c>
@@ -8673,7 +8653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="n">
         <v>2021</v>
       </c>
@@ -10764,14 +10744,9 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:O251">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="2020"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -10779,6 +10754,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>